--- a/biology/Botanique/Macadamia_ternifolia/Macadamia_ternifolia.xlsx
+++ b/biology/Botanique/Macadamia_ternifolia/Macadamia_ternifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Macadamia ternifolia est une espèce d'arbre du genre Macadamia et de la famille des Proteaceae. C'est un « macadamier » aux longues feuilles persistantes dentelées, très décoratives[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macadamia ternifolia est une espèce d'arbre du genre Macadamia et de la famille des Proteaceae. C'est un « macadamier » aux longues feuilles persistantes dentelées, très décoratives.
 Il est originaire du Queensland en Australie.
 Il ne faut pas le confondre avec Macadamia ternifolia auct. non F. Muell., le noyer du Queensland (Macadamia integrifolia), dont les feuilles diffèrent et dont les fruits, les noix du Queensland, sont plus gros mais de saveur similaire.
 </t>
